--- a/model/Outputs/2. No PV/Output Files/30/Output_1_36.xlsx
+++ b/model/Outputs/2. No PV/Output Files/30/Output_1_36.xlsx
@@ -23,6 +23,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net demand" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net surplus" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unmet Demand" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Household Surplus" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +542,26 @@
       </c>
       <c r="B10" t="n">
         <v>82466.8515333329</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>VoLL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Household Surplus</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>476462.4243351869</v>
       </c>
     </row>
   </sheetData>
@@ -26084,6 +26105,152 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>surplus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9786.153398847811</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19519.41184612709</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29252.67029340637</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>38985.92874068563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>48719.18718796489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>58452.44563524413</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>68185.70408252337</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77918.96252980261</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>87652.22097708186</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>97385.47942436111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>107118.7378716404</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>116851.9963189197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>126585.254766199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>136318.5132134783</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>146051.7716607575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
